--- a/trunk/social-analytics/social-analytics-collector/doc/data_layout_v0.2_20120117.xlsx
+++ b/trunk/social-analytics/social-analytics-collector/doc/data_layout_v0.2_20120117.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14440" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14380" tabRatio="572" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="lucene_index" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="147">
   <si>
     <t>site</t>
   </si>
@@ -219,9 +219,6 @@
     <t>피쳐 분류 집합(구분자: 공백)</t>
   </si>
   <si>
-    <t>주제어-서술어-속성-수식어 조합의 절집합(구분자: 공백)</t>
-  </si>
-  <si>
     <t>tweet_id</t>
   </si>
   <si>
@@ -460,6 +457,15 @@
   </si>
   <si>
     <t>is_spam</t>
+  </si>
+  <si>
+    <t>주제어-서술어-속성-수식어 조합의 절집합(구분자: 콤마)</t>
+  </si>
+  <si>
+    <t>주제어(구분자: 공백)</t>
+  </si>
+  <si>
+    <t>서술어(구분자: 공백)</t>
   </si>
 </sst>
 </file>
@@ -587,7 +593,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="129">
+  <cellStyleXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -717,8 +723,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -733,8 +751,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="129">
+  <cellStyles count="141">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -799,6 +818,12 @@
     <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -863,6 +888,12 @@
     <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1207,16 +1238,16 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B2" s="10"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1224,7 +1255,7 @@
         <v>31</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1264,7 +1295,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1280,7 +1311,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1357,7 +1388,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>27</v>
@@ -1365,7 +1396,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>28</v>
@@ -1403,7 +1434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -1416,24 +1447,24 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B2" s="10"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1473,7 +1504,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1489,7 +1520,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1558,7 +1589,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>27</v>
@@ -1566,7 +1597,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>28</v>
@@ -1604,7 +1635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B65"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A49" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
@@ -1617,16 +1648,16 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B2" s="10"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1663,34 +1694,34 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1698,21 +1729,21 @@
         <v>13</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B14" s="10"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1749,10 +1780,10 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1765,26 +1796,26 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1792,21 +1823,21 @@
         <v>13</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B27" s="10"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1843,10 +1874,10 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1867,32 +1898,32 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B39" s="10"/>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1929,10 +1960,10 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1961,40 +1992,40 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B53" s="10"/>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2031,10 +2062,10 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -2058,31 +2089,31 @@
         <v>10</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2101,8 +2132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B28"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2114,24 +2145,24 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B2" s="10"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2143,162 +2174,162 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>85</v>
+      <c r="B10" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>89</v>
+      <c r="B12" s="8" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>24</v>
+      <c r="B23" s="8" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>25</v>
+      <c r="B24" s="8" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="8" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="8" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2311,10 +2342,10 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="8" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2335,7 +2366,7 @@
   <dimension ref="A2:B31"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageLayout" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2347,24 +2378,24 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B2" s="10"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2404,7 +2435,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2420,7 +2451,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2457,7 +2488,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>42</v>
@@ -2523,8 +2554,8 @@
       <c r="A25" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>64</v>
+      <c r="B25" s="8" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2591,8 +2622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B27"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2604,24 +2635,24 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B2" s="10"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2661,15 +2692,15 @@
         <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2677,31 +2708,31 @@
         <v>5</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2748,8 +2779,8 @@
       <c r="A21" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>64</v>
+      <c r="B21" s="8" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2816,8 +2847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B31"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2829,24 +2860,24 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B2" s="10"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2886,15 +2917,15 @@
         <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2902,7 +2933,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2923,34 +2954,34 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>75</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>78</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2979,10 +3010,10 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3005,8 +3036,8 @@
       <c r="A25" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>64</v>
+      <c r="B25" s="8" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:2">
